--- a/biology/Médecine/Heidi_Schüller/Heidi_Schüller.xlsx
+++ b/biology/Médecine/Heidi_Schüller/Heidi_Schüller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heidi_Sch%C3%BCller</t>
+          <t>Heidi_Schüller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heidi Schüller, née le 15 juin 1950 à Passau, est une athlète allemande ayant concouru sous les couleurs de l'Allemagne de l'Ouest, une présentatrice de télévision et une médecin anesthésiste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heidi_Sch%C3%BCller</t>
+          <t>Heidi_Schüller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heidi Schüller est médaillée de bronze du relais 4 × 100 mètres à l'Universiade d'été de 1970 à Turin.
-Elle est la première femme de l'histoire des Jeux olympiques à prononcer le Serment olympique, lors de la cérémonie d'ouverture des Jeux de 1972 à Munich ; elle termine cinquième du concours du saut en longueur et participe aux séries du 100 mètres haies[1]. 
-Elle est sacrée championne d'Allemagne de l'Ouest du 100 mètres haies en 1972[2], et championne d'Allemagne de l'Ouest en salle du 60 mètres haies en 1970[3].
-Après sa carrière sportive, elle devient médecin anesthésiste à l'hôpital de Cologne. Elle deviendra par la suite présentatrice de télévision à Sat.1, ORF ou encore Arte. Elle publie plusieurs ouvrages critiques sur les relations intergénérationnelles. En 1994, en tant qu'experte médicale, elle fait partie du cabinet fantôme de Rudolf Scharping[1].
+Elle est la première femme de l'histoire des Jeux olympiques à prononcer le Serment olympique, lors de la cérémonie d'ouverture des Jeux de 1972 à Munich ; elle termine cinquième du concours du saut en longueur et participe aux séries du 100 mètres haies. 
+Elle est sacrée championne d'Allemagne de l'Ouest du 100 mètres haies en 1972, et championne d'Allemagne de l'Ouest en salle du 60 mètres haies en 1970.
+Après sa carrière sportive, elle devient médecin anesthésiste à l'hôpital de Cologne. Elle deviendra par la suite présentatrice de télévision à Sat.1, ORF ou encore Arte. Elle publie plusieurs ouvrages critiques sur les relations intergénérationnelles. En 1994, en tant qu'experte médicale, elle fait partie du cabinet fantôme de Rudolf Scharping.
 </t>
         </is>
       </c>
